--- a/input_sample/M18001288W_input_sample.xlsx
+++ b/input_sample/M18001288W_input_sample.xlsx
@@ -26,26 +26,32 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>pcEnPceD_width</t>
-  </si>
-  <si>
-    <t>pcEnPceD_thick</t>
-  </si>
-  <si>
-    <t>pcFSSstdD_force_strip</t>
-  </si>
-  <si>
-    <t>pcExPceD_temp_avg</t>
-  </si>
-  <si>
-    <t>pcExPceD_width</t>
+    <t>rolling_force</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pcExPceD_thick</t>
+    <t>en_with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pcExPceD_tension</t>
+    <t>ex_width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_thick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_thick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_tension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -379,14 +385,14 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" customWidth="1"/>
     <col min="5" max="5" width="19.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.09765625" bestFit="1" customWidth="1"/>
@@ -394,25 +400,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/input_sample/M18001288W_input_sample.xlsx
+++ b/input_sample/M18001288W_input_sample.xlsx
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>en_with</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ex_width</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,6 +47,10 @@
   </si>
   <si>
     <t>ex_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_width</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +385,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -400,25 +400,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/input_sample/M18001288W_input_sample.xlsx
+++ b/input_sample/M18001288W_input_sample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>rolling_force</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>en_width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_diam_wr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_diam_br</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equiv_mod_wr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,8 +109,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -382,23 +397,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.09765625" customWidth="1"/>
-    <col min="5" max="5" width="19.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -420,8 +437,17 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -446,8 +472,17 @@
       <c r="H2">
         <v>7.1509999999999998</v>
       </c>
+      <c r="I2">
+        <v>746.42</v>
+      </c>
+      <c r="J2">
+        <v>1508.12</v>
+      </c>
+      <c r="K2" s="1">
+        <v>206600</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -472,8 +507,17 @@
       <c r="H3">
         <v>8.3000000000000007</v>
       </c>
+      <c r="I3">
+        <v>737.68</v>
+      </c>
+      <c r="J3">
+        <v>1500.41</v>
+      </c>
+      <c r="K3" s="1">
+        <v>206300</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -498,8 +542,17 @@
       <c r="H4">
         <v>9.1240000000000006</v>
       </c>
+      <c r="I4">
+        <v>728.57</v>
+      </c>
+      <c r="J4">
+        <v>1525.99</v>
+      </c>
+      <c r="K4" s="1">
+        <v>206000</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -524,8 +577,17 @@
       <c r="H5">
         <v>11.3</v>
       </c>
+      <c r="I5">
+        <v>716.47</v>
+      </c>
+      <c r="J5">
+        <v>1496.49</v>
+      </c>
+      <c r="K5" s="1">
+        <v>205500</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -550,8 +612,17 @@
       <c r="H6">
         <v>13.2</v>
       </c>
+      <c r="I6">
+        <v>667.28</v>
+      </c>
+      <c r="J6">
+        <v>1471.21</v>
+      </c>
+      <c r="K6" s="1">
+        <v>199000</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -576,8 +647,17 @@
       <c r="H7">
         <v>14.6</v>
       </c>
+      <c r="I7">
+        <v>674.57</v>
+      </c>
+      <c r="J7">
+        <v>1498.27</v>
+      </c>
+      <c r="K7" s="1">
+        <v>198500</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -601,10 +681,20 @@
       </c>
       <c r="H8">
         <v>0</v>
+      </c>
+      <c r="I8">
+        <v>669.65</v>
+      </c>
+      <c r="J8">
+        <v>1477.21</v>
+      </c>
+      <c r="K8" s="1">
+        <v>198800</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input_sample/M18001288W_input_sample.xlsx
+++ b/input_sample/M18001288W_input_sample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>rolling_force</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <t>equiv_mod_wr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prf_chg_attn_fac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pu_prf_pass0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,10 +405,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -413,9 +421,10 @@
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -446,8 +455,14 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -481,8 +496,14 @@
       <c r="K2" s="1">
         <v>206600</v>
       </c>
+      <c r="L2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M2">
+        <v>6.3E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -516,8 +537,14 @@
       <c r="K3" s="1">
         <v>206300</v>
       </c>
+      <c r="L3">
+        <v>2.6</v>
+      </c>
+      <c r="M3">
+        <v>6.3E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -551,8 +578,14 @@
       <c r="K4" s="1">
         <v>206000</v>
       </c>
+      <c r="L4">
+        <v>11.34</v>
+      </c>
+      <c r="M4">
+        <v>6.3E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -586,8 +619,14 @@
       <c r="K5" s="1">
         <v>205500</v>
       </c>
+      <c r="L5">
+        <v>20.57</v>
+      </c>
+      <c r="M5">
+        <v>6.3E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -621,8 +660,14 @@
       <c r="K6" s="1">
         <v>199000</v>
       </c>
+      <c r="L6">
+        <v>29.3</v>
+      </c>
+      <c r="M6">
+        <v>6.3E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -656,8 +701,14 @@
       <c r="K7" s="1">
         <v>198500</v>
       </c>
+      <c r="L7">
+        <v>30.29</v>
+      </c>
+      <c r="M7">
+        <v>6.3E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -690,6 +741,12 @@
       </c>
       <c r="K8" s="1">
         <v>198800</v>
+      </c>
+      <c r="L8">
+        <v>30.23</v>
+      </c>
+      <c r="M8">
+        <v>6.3E-3</v>
       </c>
     </row>
   </sheetData>

--- a/input_sample/M18001288W_input_sample.xlsx
+++ b/input_sample/M18001288W_input_sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16399" windowHeight="6749"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16404" windowHeight="6744"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,19 +408,19 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>

--- a/input_sample/M18001288W_input_sample.xlsx
+++ b/input_sample/M18001288W_input_sample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>rolling_force</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>pu_prf_pass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos_shft</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +409,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -424,7 +428,7 @@
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -461,8 +465,11 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -502,8 +509,11 @@
       <c r="M2">
         <v>6.3E-3</v>
       </c>
+      <c r="N2">
+        <v>-140.6</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -543,8 +553,11 @@
       <c r="M3">
         <v>6.3E-3</v>
       </c>
+      <c r="N3">
+        <v>-52.46</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -584,8 +597,11 @@
       <c r="M4">
         <v>6.3E-3</v>
       </c>
+      <c r="N4">
+        <v>-23.9</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -625,8 +641,11 @@
       <c r="M5">
         <v>6.3E-3</v>
       </c>
+      <c r="N5">
+        <v>-24.41</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -666,8 +685,11 @@
       <c r="M6">
         <v>6.3E-3</v>
       </c>
+      <c r="N6">
+        <v>-122.24</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -707,8 +729,11 @@
       <c r="M7">
         <v>6.3E-3</v>
       </c>
+      <c r="N7">
+        <v>66.790000000000006</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -747,6 +772,9 @@
       </c>
       <c r="M8">
         <v>6.3E-3</v>
+      </c>
+      <c r="N8">
+        <v>111.34</v>
       </c>
     </row>
   </sheetData>
